--- a/excel2mysql/excels/comp_event_award.xlsx
+++ b/excel2mysql/excels/comp_event_award.xlsx
@@ -19,21 +19,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>ID</t>
   </si>
   <si>
-    <t>无注释</t>
+    <t>int(10) unsigned|PRI|auto_increment</t>
+  </si>
+  <si>
+    <t>无</t>
   </si>
   <si>
     <t>EventID</t>
   </si>
   <si>
+    <t>int(11)|PRI|</t>
+  </si>
+  <si>
     <t>赛事ID</t>
   </si>
   <si>
     <t>MaxRank</t>
+  </si>
+  <si>
+    <t>int(11)||</t>
   </si>
   <si>
     <t>最高名次</t>
@@ -378,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -389,16 +398,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -406,49 +415,66 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>3</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
         <v>1</v>
       </c>
     </row>
